--- a/Test asperitas new.xlsx
+++ b/Test asperitas new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test_asperitas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392943E8-3EDE-4E4C-9EDA-4D878FD730A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA34AA04-7110-4F74-BDB9-C715DD853111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{50901EC0-5944-4AB6-8707-8FF3B192D060}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="70">
   <si>
     <t>Проект</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>6. Над полем регистрации появилось сообщение "INVALID PASSWORD"</t>
+  </si>
+  <si>
+    <t>3. Заполнить поле "USERNAME" - "АнтохаФролл"</t>
   </si>
 </sst>
 </file>
@@ -875,6 +878,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -904,9 +910,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1240,64 +1243,64 @@
       <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="76"/>
+      <c r="D3" s="77"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="76"/>
+      <c r="D4" s="77"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="76"/>
+      <c r="D5" s="77"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="78">
         <v>44916</v>
       </c>
-      <c r="D6" s="78"/>
+      <c r="D6" s="79"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="76"/>
+      <c r="D7" s="77"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="72"/>
+      <c r="D8" s="73"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="28" t="s">
@@ -1320,7 +1323,7 @@
       <c r="D10" s="37"/>
     </row>
     <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="70" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="39" t="s">
@@ -1329,77 +1332,77 @@
       <c r="D11" s="25"/>
     </row>
     <row r="12" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="40" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="26"/>
     </row>
     <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="69"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="40" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="26"/>
     </row>
     <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="69"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="40" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="26"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="69"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="26"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="69"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="26"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="69"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="26"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="69"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="40" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="26"/>
     </row>
     <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="69"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="26"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="69"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="69"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="70"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="22" t="s">
         <v>45</v>
       </c>
@@ -1425,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F667479D-B99A-4D84-94BD-2129C8561E96}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,9 +1927,9 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="79"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="40" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C68" s="40" t="s">
         <v>63</v>

--- a/Test asperitas new.xlsx
+++ b/Test asperitas new.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test_asperitas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA34AA04-7110-4F74-BDB9-C715DD853111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96BD2C9-111E-4C04-8AFC-5EE932C3F364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{50901EC0-5944-4AB6-8707-8FF3B192D060}"/>
   </bookViews>
   <sheets>
     <sheet name="Чек-лист" sheetId="4" r:id="rId1"/>
-    <sheet name="Тест-кейс" sheetId="3" r:id="rId2"/>
+    <sheet name="Тест-кейсы" sheetId="3" r:id="rId2"/>
     <sheet name="Новый тестовый набор" sheetId="5" r:id="rId3"/>
     <sheet name="Тестовый набор" sheetId="2" r:id="rId4"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="81">
   <si>
     <t>Проект</t>
   </si>
@@ -156,25 +156,10 @@
     <t>Создание постов</t>
   </si>
   <si>
-    <t>Просмотр постов</t>
-  </si>
-  <si>
-    <t>Удаления постов</t>
-  </si>
-  <si>
-    <t>Просмотр постов по юзеру</t>
-  </si>
-  <si>
     <t>Просмотр постов по категории</t>
   </si>
   <si>
     <t>Создание комментариев</t>
-  </si>
-  <si>
-    <t>Просмотра комментариев</t>
-  </si>
-  <si>
-    <t>Удаления комментариев</t>
   </si>
   <si>
     <t>Открытие сайта</t>
@@ -231,42 +216,94 @@
     <t>ID.5</t>
   </si>
   <si>
-    <t>1. На сайте https://asperitas.vercel.app/ нажать кнопку "LOG UP"</t>
-  </si>
-  <si>
     <t>4. Заполнить поле "USERNAME" - "AntohaFroll"
 Не заполнять поле "PASSWORD"
 Нажать кнопку "LOG IN"</t>
   </si>
   <si>
+    <t>2. Поля "USERNAME" и ''PASSWORD" выделены красным, над полями появилось сообщение "REQUIRED"</t>
+  </si>
+  <si>
+    <t>3. Поле "USERNAME" выделено красным, над полем появилось сообщение "CONTAINS INVALID CHARACTERS"</t>
+  </si>
+  <si>
+    <t>4. Поле "PASSWORD" выделено красным над полем появилось сообщение "REQUIRED"</t>
+  </si>
+  <si>
+    <t>5. Поле "PASSWORD" выделено красным, над полем появилось сообщение "MUST BE MORE THAN 8 CHARACTERS", поле "CONFIRM PASSWORD" выделено красным, надо полем появилось сообщение "PASSWORDS MUST MATCH"</t>
+  </si>
+  <si>
+    <t>6. Поле "CONFIRM PASSWORD" выделено красным, над полем появилось сообщение "PASSWORDS MUST MATCH"</t>
+  </si>
+  <si>
+    <t>5. Поле "PASSWORD" выделено красным, над полем появилось сообщение "MUST BE MORE THAN 8 CHARACTERS"</t>
+  </si>
+  <si>
+    <t>6. Над полем регистрации появилось сообщение "INVALID PASSWORD"</t>
+  </si>
+  <si>
+    <t>ID.6</t>
+  </si>
+  <si>
+    <t>Удаление комментариев</t>
+  </si>
+  <si>
+    <t>Просмотр комментариев</t>
+  </si>
+  <si>
+    <t>Удаление постов</t>
+  </si>
+  <si>
+    <t>1. На сайте https://asperitas.vercel.app/ нажать нажать на любой пост, например "Testing my new text post feature :)"</t>
+  </si>
+  <si>
+    <t>Просмотр поста</t>
+  </si>
+  <si>
+    <t>Просмотр постов по пользователю</t>
+  </si>
+  <si>
+    <t>ID.7</t>
+  </si>
+  <si>
+    <t>1. На сайте https://asperitas.vercel.app/ в строке поста любого поста нажать на пользователя, например "banana"</t>
+  </si>
+  <si>
+    <t>1. Открыта страница с постом "Testing my new text post feature :)"</t>
+  </si>
+  <si>
+    <t>1. Открыта страница с постами пользователя "banana"</t>
+  </si>
+  <si>
+    <t>ID.8</t>
+  </si>
+  <si>
+    <t>1. На сайте https://asperitas.vercel.app/ в списке категории "CATEGORIES" нажать на любую категорию, например "MUSIC"</t>
+  </si>
+  <si>
+    <t>1. Открыта страница с постами категории "MUSIC"</t>
+  </si>
+  <si>
+    <t>2. Вернуться на главную страницу, нажав на логотип с</t>
+  </si>
+  <si>
+    <t>3. Заполнить поле "USERNAME" - "Antoha$roll"
+Нажать кнопку "LOG IN"</t>
+  </si>
+  <si>
+    <t>5.  Заполнить поле "USERNAME" - "AntohaFroll"
+Начать заполнять поле "PASSWORD" - "q"
+Нажать кнопку "LOG IN"</t>
+  </si>
+  <si>
+    <t>2. Не заполнять поля
+Нажать кнопку "LOG IN"</t>
+  </si>
+  <si>
     <t>6.Заполнить поля
 "USERNAME" - "AntohaFroll"
 "PASSWORD" - "qwerty123457"
-Нажать кнопку "SIGN UP"</t>
-  </si>
-  <si>
-    <t>2. Поля "USERNAME" и ''PASSWORD" выделены красным, над полями появилось сообщение "REQUIRED"</t>
-  </si>
-  <si>
-    <t>3. Поле "USERNAME" выделено красным, над полем появилось сообщение "CONTAINS INVALID CHARACTERS"</t>
-  </si>
-  <si>
-    <t>4. Поле "PASSWORD" выделено красным над полем появилось сообщение "REQUIRED"</t>
-  </si>
-  <si>
-    <t>5. Поле "PASSWORD" выделено красным, над полем появилось сообщение "MUST BE MORE THAN 8 CHARACTERS", поле "CONFIRM PASSWORD" выделено красным, надо полем появилось сообщение "PASSWORDS MUST MATCH"</t>
-  </si>
-  <si>
-    <t>6. Поле "CONFIRM PASSWORD" выделено красным, над полем появилось сообщение "PASSWORDS MUST MATCH"</t>
-  </si>
-  <si>
-    <t>5. Поле "PASSWORD" выделено красным, над полем появилось сообщение "MUST BE MORE THAN 8 CHARACTERS"</t>
-  </si>
-  <si>
-    <t>6. Над полем регистрации появилось сообщение "INVALID PASSWORD"</t>
-  </si>
-  <si>
-    <t>3. Заполнить поле "USERNAME" - "АнтохаФролл"</t>
+Нажать кнопку "LOG IN"</t>
   </si>
 </sst>
 </file>
@@ -684,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -692,9 +729,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -880,6 +914,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1227,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679679C9-BDA8-47D5-9B12-FD41B9C5A812}">
   <dimension ref="B1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,173 +1295,173 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="75"/>
+      <c r="D2" s="81"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="77"/>
+      <c r="D3" s="83"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="77"/>
+      <c r="D4" s="83"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="77"/>
+      <c r="D5" s="83"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="84">
         <v>44916</v>
       </c>
-      <c r="D6" s="79"/>
+      <c r="D6" s="85"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="77"/>
+      <c r="D7" s="83"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="79"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="37"/>
+      <c r="C10" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
-      <c r="C12" s="40" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="40" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="70"/>
-      <c r="C14" s="40" t="s">
+      <c r="B14" s="76"/>
+      <c r="C14" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="70"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="76"/>
+      <c r="C15" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="76"/>
+      <c r="C16" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="76"/>
+      <c r="C17" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="76"/>
+      <c r="C18" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="39"/>
+    </row>
+    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="76"/>
+      <c r="C19" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="26"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="70"/>
-      <c r="C16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="26"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="70"/>
-      <c r="C17" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="26"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="70"/>
-      <c r="C18" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="26"/>
-    </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="70"/>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="76"/>
+      <c r="C20" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="76"/>
+      <c r="C21" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="26"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="70"/>
-      <c r="C20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="70"/>
-      <c r="C21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="71"/>
-      <c r="C22" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="23"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1426,136 +1481,136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F667479D-B99A-4D84-94BD-2129C8561E96}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="50" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="52"/>
+      <c r="C3" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="50"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="50"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="51"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="50"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="50"/>
     </row>
     <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="51"/>
+      <c r="C8" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="50"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="51"/>
-    </row>
-    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
+      <c r="D9" s="50"/>
+    </row>
+    <row r="10" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="53"/>
+      <c r="D10" s="52"/>
     </row>
     <row r="11" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="51"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="68"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="51"/>
     </row>
     <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="54"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="62" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1563,7 +1618,7 @@
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="62" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1571,82 +1626,82 @@
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="64"/>
+      <c r="C18" s="63"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="62" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="65" t="s">
-        <v>48</v>
+      <c r="C20" s="64" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
+    <row r="22" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="47"/>
     </row>
     <row r="24" spans="2:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="41" t="s">
+      <c r="B24" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="48"/>
+      <c r="D24" s="47"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="47"/>
     </row>
     <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="48"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="47"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="61" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1654,15 +1709,15 @@
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="63" t="s">
-        <v>47</v>
+      <c r="C29" s="62" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="62" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1670,86 +1725,86 @@
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="64"/>
+      <c r="C31" s="63"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="62" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="65" t="s">
-        <v>48</v>
+      <c r="C33" s="64" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="21" t="s">
+    <row r="35" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>62</v>
+      <c r="B37" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="40" t="s">
-        <v>63</v>
+      <c r="C38" s="39" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B39" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>64</v>
+      <c r="B39" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B40" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>65</v>
+      <c r="B40" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>66</v>
+      <c r="B41" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1757,15 +1812,15 @@
       <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1773,15 +1828,15 @@
       <c r="B46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="63" t="s">
-        <v>54</v>
+      <c r="C46" s="62" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="62" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1789,53 +1844,53 @@
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="64"/>
+      <c r="C48" s="63"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="62" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="65" t="s">
-        <v>48</v>
+      <c r="C50" s="64" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="21" t="s">
+    <row r="52" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>56</v>
+      <c r="B53" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="41" t="s">
+      <c r="B54" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="40" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1844,15 +1899,15 @@
       <c r="B57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="62" t="s">
+      <c r="C58" s="61" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1860,15 +1915,15 @@
       <c r="B59" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="63" t="s">
-        <v>58</v>
+      <c r="C59" s="62" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="63" t="s">
+      <c r="C60" s="62" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1876,87 +1931,340 @@
       <c r="B61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="64"/>
+      <c r="C61" s="63"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="63" t="s">
+      <c r="C62" s="62" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="65" t="s">
-        <v>48</v>
+      <c r="C63" s="64" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="66" t="s">
+      <c r="C64" s="65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="21" t="s">
+    <row r="65" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="39" t="s">
+    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B67" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="40" t="s">
+      <c r="B67" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="68"/>
+      <c r="B68" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B69" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B70" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="69"/>
-      <c r="B68" s="40" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="63"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B69" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>68</v>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="63"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="63"/>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B107" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" s="71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C108" s="73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C109" s="75" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1998,374 +2306,374 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="16"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="16"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="16"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="16"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="16"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="16"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="16"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="16"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="16"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="16"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="2:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="20"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="19"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Test asperitas new.xlsx
+++ b/Test asperitas new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test_asperitas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96BD2C9-111E-4C04-8AFC-5EE932C3F364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71346E69-5EDB-487B-B536-2CC052D20D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{50901EC0-5944-4AB6-8707-8FF3B192D060}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{50901EC0-5944-4AB6-8707-8FF3B192D060}"/>
   </bookViews>
   <sheets>
     <sheet name="Чек-лист" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="86">
   <si>
     <t>Проект</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>1. Открыт сайт https://asperitas.vercel.app/</t>
-  </si>
-  <si>
-    <t>3. Заполнить поле "USERNAME" - АнтохаФролл</t>
   </si>
   <si>
     <t>Регистрация нового пользователя с корректными данными</t>
@@ -178,10 +175,6 @@
     <t>4. Заполнить поле "USERNAME" - "AntohaFroll"
 Не заполнять поля "PASSWORD" и "CONFIRM PASSWORD"
 Нажать кнопку "SIGN UP"</t>
-  </si>
-  <si>
-    <t>5.  Заполнить поле "USERNAME" - "AntohaFroll"
-Начать заполнять поле "PASSWORD" - "q"</t>
   </si>
   <si>
     <t>6.Заполнить поля
@@ -266,9 +259,6 @@
     <t>ID.7</t>
   </si>
   <si>
-    <t>1. На сайте https://asperitas.vercel.app/ в строке поста любого поста нажать на пользователя, например "banana"</t>
-  </si>
-  <si>
     <t>1. Открыта страница с постом "Testing my new text post feature :)"</t>
   </si>
   <si>
@@ -284,15 +274,7 @@
     <t>1. Открыта страница с постами категории "MUSIC"</t>
   </si>
   <si>
-    <t>2. Вернуться на главную страницу, нажав на логотип с</t>
-  </si>
-  <si>
     <t>3. Заполнить поле "USERNAME" - "Antoha$roll"
-Нажать кнопку "LOG IN"</t>
-  </si>
-  <si>
-    <t>5.  Заполнить поле "USERNAME" - "AntohaFroll"
-Начать заполнять поле "PASSWORD" - "q"
 Нажать кнопку "LOG IN"</t>
   </si>
   <si>
@@ -304,6 +286,44 @@
 "USERNAME" - "AntohaFroll"
 "PASSWORD" - "qwerty123457"
 Нажать кнопку "LOG IN"</t>
+  </si>
+  <si>
+    <t>3. Заполнить поле "USERNAME" - Antoha$roll</t>
+  </si>
+  <si>
+    <t>5.  Заполнить поле "USERNAME" - "AntohaFroll"
+Заполнить поле "PASSWORD" - "q"
+Нажать кнопку "LOG IN"</t>
+  </si>
+  <si>
+    <t>5.  Заполнить поле "USERNAME" - "AntohaFroll"
+Заполнить поле "PASSWORD" - "q"
+Нажать кнопку "SIGN UP"</t>
+  </si>
+  <si>
+    <t>7.Заполнить поля
+"USERNAME" - "AntohaFroll"
+"PASSWORD" - "qwerty123456"
+"CONFIRM PASSWORD" - "qwerty123457"
+Нажать кнопку "SIGN UP"</t>
+  </si>
+  <si>
+    <t>7. Поле "CONFIRM PASSWORD" выделено красным, над полем появилось сообщение "PASSWORDS MUST MATCH"</t>
+  </si>
+  <si>
+    <t>2. Вернуться на главную страницу, нажав на логотип сайта</t>
+  </si>
+  <si>
+    <t>2. Открыта главная страница сайта</t>
+  </si>
+  <si>
+    <t>1. На сайте https://asperitas.vercel.app/ в строке любого поста нажать на пользователя, например "banana"</t>
+  </si>
+  <si>
+    <t>3. На сайте https://asperitas.vercel.app/ в строке любого поста нажать на категорию, например "/a/music"</t>
+  </si>
+  <si>
+    <t>3. Открыта страница с постами категории "MUSIC"</t>
   </si>
 </sst>
 </file>
@@ -336,12 +356,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="28">
@@ -721,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -912,30 +950,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -966,6 +983,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1298,64 +1321,64 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="81"/>
+      <c r="D2" s="74"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="83"/>
+      <c r="D3" s="76"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="76"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="83"/>
+      <c r="D5" s="76"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="77">
         <v>44916</v>
       </c>
-      <c r="D6" s="85"/>
+      <c r="D6" s="78"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="83"/>
+      <c r="D7" s="76"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="79"/>
+      <c r="D8" s="72"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27" t="s">
@@ -1373,93 +1396,93 @@
         <v>8</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="36"/>
     </row>
     <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="69" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="69"/>
+      <c r="C12" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="76"/>
-      <c r="C12" s="39" t="s">
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="69"/>
+      <c r="C13" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="76"/>
-      <c r="C13" s="39" t="s">
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="69"/>
+      <c r="C14" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="76"/>
-      <c r="C14" s="39" t="s">
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="69"/>
+      <c r="C15" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="69"/>
+      <c r="C16" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="69"/>
+      <c r="C17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="69"/>
+      <c r="C18" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="39"/>
+    </row>
+    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="69"/>
+      <c r="C19" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="76"/>
-      <c r="C15" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="39"/>
-    </row>
-    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="76"/>
-      <c r="C16" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="76"/>
-      <c r="C17" s="39" t="s">
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="69"/>
+      <c r="C20" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="69"/>
+      <c r="C21" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="25"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="76"/>
-      <c r="C18" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="39"/>
-    </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="76"/>
-      <c r="C19" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="25"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="76"/>
-      <c r="C20" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="76"/>
-      <c r="C21" s="39" t="s">
-        <v>40</v>
-      </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="77"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="22"/>
     </row>
@@ -1481,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F667479D-B99A-4D84-94BD-2129C8561E96}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,8 +1517,9 @@
     <col min="4" max="4" width="31.85546875" style="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="82"/>
       <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
@@ -1504,16 +1528,16 @@
       </c>
       <c r="D2" s="50"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="51"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>2</v>
       </c>
@@ -1522,7 +1546,7 @@
       </c>
       <c r="D4" s="50"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
         <v>3</v>
       </c>
@@ -1531,14 +1555,14 @@
       </c>
       <c r="D5" s="50"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="57"/>
       <c r="D6" s="50"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="43" t="s">
         <v>5</v>
       </c>
@@ -1547,16 +1571,16 @@
       </c>
       <c r="D7" s="50"/>
     </row>
-    <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="50"/>
     </row>
-    <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="45" t="s">
         <v>16</v>
       </c>
@@ -1565,8 +1589,8 @@
       </c>
       <c r="D9" s="50"/>
     </row>
-    <row r="10" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="69" t="s">
+    <row r="10" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="68" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -1574,7 +1598,8 @@
       </c>
       <c r="D10" s="52"/>
     </row>
-    <row r="11" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="79"/>
       <c r="B11" s="46" t="s">
         <v>31</v>
       </c>
@@ -1583,13 +1608,14 @@
       </c>
       <c r="D11" s="51"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="67"/>
       <c r="C12" s="47"/>
       <c r="D12" s="51"/>
     </row>
-    <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="82"/>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1597,16 +1623,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="53"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
@@ -1614,7 +1640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1622,13 +1648,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="63"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1636,15 +1662,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1652,7 +1678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="20" t="s">
         <v>17</v>
       </c>
@@ -1661,7 +1687,8 @@
       </c>
       <c r="D22" s="54"/>
     </row>
-    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="79"/>
       <c r="B23" s="38" t="s">
         <v>29</v>
       </c>
@@ -1670,26 +1697,27 @@
       </c>
       <c r="D23" s="47"/>
     </row>
-    <row r="24" spans="2:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="81"/>
       <c r="B24" s="40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="40" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="47"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
       <c r="D25" s="47"/>
     </row>
-    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
       <c r="D26" s="47"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1697,23 +1725,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="62" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
@@ -1721,13 +1749,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="63"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1735,15 +1763,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>16</v>
       </c>
@@ -1751,7 +1779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="20" t="s">
         <v>17</v>
       </c>
@@ -1759,7 +1787,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="79"/>
       <c r="B36" s="38" t="s">
         <v>29</v>
       </c>
@@ -1767,504 +1796,527 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="79"/>
       <c r="B37" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="79"/>
+      <c r="B38" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="79"/>
+      <c r="B39" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C39" s="25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="39" t="s">
+    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="79"/>
+      <c r="B40" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B39" s="25" t="s">
+    <row r="41" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="79"/>
+      <c r="B41" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C41" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B40" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="25" t="s">
+    <row r="42" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="79"/>
+      <c r="B42" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="82"/>
+      <c r="B45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="63"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="79"/>
+      <c r="B54" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="79"/>
+      <c r="B55" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="82"/>
+      <c r="B58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="63"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="79"/>
+      <c r="B67" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="79"/>
+      <c r="B68" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="80"/>
+      <c r="B69" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="79"/>
+      <c r="B70" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="79"/>
+      <c r="B71" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="26" t="s">
+    <row r="72" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="79"/>
+      <c r="B72" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C75" s="60" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="37" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="63"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="61" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="63"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="62" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" s="38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B67" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" s="39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="68"/>
-      <c r="B68" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B69" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B70" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="62" t="s">
-        <v>62</v>
+      <c r="C76" s="61" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" s="62" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="63"/>
+        <v>3</v>
+      </c>
+      <c r="C78" s="62" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="63"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="62" t="s">
+      <c r="C80" s="62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="34" t="s">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="3" t="s">
+      <c r="C81" s="64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="65" t="s">
+      <c r="C82" s="65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="20" t="s">
+    <row r="83" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C83" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="35" t="s">
+    <row r="84" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="61" t="s">
         <v>66</v>
-      </c>
-      <c r="C83" s="35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" s="60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="61" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="62" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" s="62" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="63"/>
+        <v>3</v>
+      </c>
+      <c r="C90" s="62" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="63"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C91" s="62" t="s">
+      <c r="C92" s="62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="34" t="s">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="65" t="s">
+      <c r="C94" s="65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="20" t="s">
+    <row r="95" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C94" s="23" t="s">
+      <c r="C95" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C95" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
+    <row r="96" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="60" t="s">
+      <c r="C99" s="60" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="37" t="s">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="61" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C100" s="62" t="s">
-        <v>73</v>
+      <c r="C100" s="61" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" s="62" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" s="63"/>
+        <v>3</v>
+      </c>
+      <c r="C102" s="62" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="63"/>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="62" t="s">
+      <c r="C104" s="62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="34" t="s">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="3" t="s">
+      <c r="C105" s="64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="65" t="s">
+      <c r="C106" s="65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="20" t="s">
+    <row r="107" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C107" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B107" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C107" s="71" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="C108" s="73" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C109" s="75" t="s">
-        <v>75</v>
+    <row r="108" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B108" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C108" s="38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C109" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C110" s="40" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Test asperitas new.xlsx
+++ b/Test asperitas new.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test_asperitas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71346E69-5EDB-487B-B536-2CC052D20D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9DDA76-5A46-441C-9E3A-BA06F9A108DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{50901EC0-5944-4AB6-8707-8FF3B192D060}"/>
   </bookViews>
   <sheets>
     <sheet name="Чек-лист" sheetId="4" r:id="rId1"/>
     <sheet name="Тест-кейсы" sheetId="3" r:id="rId2"/>
-    <sheet name="Новый тестовый набор" sheetId="5" r:id="rId3"/>
-    <sheet name="Тестовый набор" sheetId="2" r:id="rId4"/>
+    <sheet name="Тестовый набор" sheetId="5" r:id="rId3"/>
+    <sheet name="Баг-репорт" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="149">
   <si>
     <t>Проект</t>
   </si>
@@ -111,12 +111,6 @@
     <t>Описание теста</t>
   </si>
   <si>
-    <t>Дата проведения</t>
-  </si>
-  <si>
-    <t>Статус ("не тестировано", "тестировано успешно", "тестирование с ошибкой")</t>
-  </si>
-  <si>
     <t>asperitas.vercel.app</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
   </si>
   <si>
     <t>Авторизация с некорректными данными</t>
-  </si>
-  <si>
-    <t>Создание постов</t>
   </si>
   <si>
     <t>Просмотр постов по категории</t>
@@ -250,9 +241,6 @@
     <t>1. На сайте https://asperitas.vercel.app/ нажать нажать на любой пост, например "Testing my new text post feature :)"</t>
   </si>
   <si>
-    <t>Просмотр поста</t>
-  </si>
-  <si>
     <t>Просмотр постов по пользователю</t>
   </si>
   <si>
@@ -324,6 +312,207 @@
   </si>
   <si>
     <t>3. Открыта страница с постами категории "MUSIC"</t>
+  </si>
+  <si>
+    <t>ID.9</t>
+  </si>
+  <si>
+    <t>1. На сайте https://asperitas.vercel.app/ в строке любого поста нажать на комментарии ".. .comments"</t>
+  </si>
+  <si>
+    <t>1. Открыта страница с постом, под которым отображается список комментариев.</t>
+  </si>
+  <si>
+    <t>Предусловия</t>
+  </si>
+  <si>
+    <t>ID.10</t>
+  </si>
+  <si>
+    <t>Авторизоваться username - "AntohaFroll", password - "qwerty123456</t>
+  </si>
+  <si>
+    <t>1. На сайте https://asperitas.vercel.app/ нажать кнопку "CREATE POST"</t>
+  </si>
+  <si>
+    <t>1. Открыта страница с формой для создания поста.</t>
+  </si>
+  <si>
+    <t>Создание текстового поста</t>
+  </si>
+  <si>
+    <t>Создание поста с url</t>
+  </si>
+  <si>
+    <t>2. Нажать кнопку "TEXT"</t>
+  </si>
+  <si>
+    <t>2. В нижнем поле формы написано "text"</t>
+  </si>
+  <si>
+    <t>3. Нажать на стрелку в строке "CATEGORY"</t>
+  </si>
+  <si>
+    <t>3. Открыт список категорий.</t>
+  </si>
+  <si>
+    <t>4. Выбрать из списка категорий любую категорию, например "programming"</t>
+  </si>
+  <si>
+    <t>5. Заполнить поле "title", например "I write my first automation test!"</t>
+  </si>
+  <si>
+    <t>5. В поле "title" отображена введённая информация</t>
+  </si>
+  <si>
+    <t>6. Заполнить поле "text", например "I don't know what I would do without my mentor"</t>
+  </si>
+  <si>
+    <t>6. В поле "text" отображена введённая информация</t>
+  </si>
+  <si>
+    <t>7. Нажать кнопку "CREATE POST"</t>
+  </si>
+  <si>
+    <t>7. Открыта страница с постом. Категория, название и текст соответствуют введённой информации</t>
+  </si>
+  <si>
+    <t>ID.11</t>
+  </si>
+  <si>
+    <t>2. Нажать кнопку "URL"</t>
+  </si>
+  <si>
+    <t>2. В нижнем поле формы написано "url"</t>
+  </si>
+  <si>
+    <t>4. В поле "CATEGORY" отображается выбранная категория</t>
+  </si>
+  <si>
+    <t>4. Выбрать из списка категорий любую категорию, например "news"</t>
+  </si>
+  <si>
+    <t>5. Заполнить поле "title", например "Google has its own website!"</t>
+  </si>
+  <si>
+    <t>6. Заполнить поле "url", например "https://www.google.com/"</t>
+  </si>
+  <si>
+    <t>7. Открыта страница с постом. Категория, название и url соответствуют введённой информации</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Предусловия</t>
+  </si>
+  <si>
+    <t>ID.12</t>
+  </si>
+  <si>
+    <t>Просмотр постов</t>
+  </si>
+  <si>
+    <t>1. На сайте https://asperitas.vercel.app/ нажать кнопку с username "AntohaFroll"</t>
+  </si>
+  <si>
+    <t>2. Нажать на любой пост, например "I write my first automation test!"</t>
+  </si>
+  <si>
+    <t>2. Открыта страница с постом</t>
+  </si>
+  <si>
+    <t>3. Нажать кнопку "delete"</t>
+  </si>
+  <si>
+    <t>1. Открыта страница с постами пользователя "AntohaFroll"</t>
+  </si>
+  <si>
+    <t>3. Открыта страница с постами пользователя "AntohaFroll", удалённый пост не отображается в списке</t>
+  </si>
+  <si>
+    <t>Серьёзность</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Прикреплённый файл</t>
+  </si>
+  <si>
+    <t>Фактический результат</t>
+  </si>
+  <si>
+    <t>ID.13</t>
+  </si>
+  <si>
+    <t>2. Заполнить поле для комментария под постом, например "It's a great post!"</t>
+  </si>
+  <si>
+    <t>2. В поле отображается введённая информация</t>
+  </si>
+  <si>
+    <t>3. Нажать кнопку "SUBMIT"</t>
+  </si>
+  <si>
+    <t>3. Комментарий отображается в списке комментариев</t>
+  </si>
+  <si>
+    <t>ID.14</t>
+  </si>
+  <si>
+    <t>Удаление комментария</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. В списке комментариев под постом выбрать комментарий, например "It's a great post!" для удаления и нажать  кнопку "delete" (для удаления доступны комментарии созданные пользователем)  </t>
+  </si>
+  <si>
+    <t>2. Удалённый комментарий не отображается в списке</t>
+  </si>
+  <si>
+    <t>Открытие сайта  https://asperitas.vercel.app/</t>
+  </si>
+  <si>
+    <t>Сайт открыт</t>
+  </si>
+  <si>
+    <t>Тестировано успешно</t>
+  </si>
+  <si>
+    <t>Регистрация нового пользователя</t>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован</t>
+  </si>
+  <si>
+    <t>Пользователь не зарегистрирован</t>
+  </si>
+  <si>
+    <t>Авторизация пользователя</t>
+  </si>
+  <si>
+    <t>Авторизация  пройдена</t>
+  </si>
+  <si>
+    <t>Авторизация не пройдена</t>
+  </si>
+  <si>
+    <t>Посты</t>
+  </si>
+  <si>
+    <t>Пост отображается</t>
+  </si>
+  <si>
+    <t>Отображается список постов пользователя</t>
+  </si>
+  <si>
+    <t>Отображается список постов выбранной катеогрии</t>
+  </si>
+  <si>
+    <t>Текстовый пост создан</t>
+  </si>
+  <si>
+    <t>Пост с url создан</t>
+  </si>
+  <si>
+    <t>Комментарии</t>
   </si>
 </sst>
 </file>
@@ -382,7 +571,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -530,146 +719,11 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -759,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -770,56 +824,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -831,16 +846,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -852,11 +867,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -878,19 +893,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -920,7 +935,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -929,7 +944,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -938,49 +953,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -989,6 +974,173 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1303,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679679C9-BDA8-47D5-9B12-FD41B9C5A812}">
-  <dimension ref="B1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,179 +1468,200 @@
     <col min="4" max="4" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="93"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="95"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="95"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="95"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="96">
+        <v>44916</v>
+      </c>
+      <c r="D6" s="97"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="95"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="74"/>
-    </row>
-    <row r="3" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="76"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="76"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="76"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="77">
-        <v>44916</v>
-      </c>
-      <c r="D6" s="78"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="76"/>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="72"/>
-    </row>
-    <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="D8" s="91"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="36" t="s">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="56"/>
+      <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="36"/>
-    </row>
-    <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="69" t="s">
+      <c r="C10" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="56"/>
+      <c r="B11" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="56"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="56"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="39" t="s">
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="56"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="69"/>
-      <c r="C13" s="39" t="s">
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="56"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="56"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="69"/>
-      <c r="C14" s="39" t="s">
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="56"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="56"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="69"/>
-      <c r="C15" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="39"/>
-    </row>
-    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="69"/>
-      <c r="C16" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="69"/>
-      <c r="C17" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="25"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="69"/>
-      <c r="C18" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="39"/>
-    </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="69"/>
-      <c r="C19" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="25"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="69"/>
-      <c r="C20" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="69"/>
-      <c r="C21" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="70"/>
-      <c r="C22" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="56"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B11:B22"/>
+    <mergeCell ref="B11:B23"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -1504,139 +1677,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F667479D-B99A-4D84-94BD-2129C8561E96}">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="50"/>
+      <c r="C2" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="51"/>
+      <c r="C3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="50"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="50"/>
+      <c r="C8" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="50"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="52"/>
-    </row>
-    <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="79"/>
-      <c r="B11" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="51"/>
+      <c r="D10" s="39"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="56"/>
+      <c r="B11" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="67"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="51"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="38"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="60" t="s">
-        <v>26</v>
+      <c r="C14" s="47" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="53"/>
+      <c r="C15" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="49" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1644,7 +1817,7 @@
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="49" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1652,100 +1825,100 @@
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="50"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="64" t="s">
-        <v>42</v>
+      <c r="C20" s="51" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="52" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="54"/>
+      <c r="D22" s="41"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="38" t="s">
+      <c r="A23" s="56"/>
+      <c r="B23" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="34"/>
     </row>
     <row r="24" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="81"/>
-      <c r="B24" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="47"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="34"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="47"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="47"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="60" t="s">
-        <v>26</v>
+      <c r="C27" s="47" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="61" t="s">
-        <v>34</v>
+      <c r="C28" s="48" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="62" t="s">
-        <v>41</v>
+      <c r="C29" s="49" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="49" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1753,134 +1926,134 @@
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="63"/>
+      <c r="C31" s="50"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="64" t="s">
-        <v>42</v>
+      <c r="C33" s="51" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="52" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="38" t="s">
+      <c r="A36" s="56"/>
+      <c r="B36" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="79"/>
-      <c r="B37" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="39" t="s">
+      <c r="A37" s="56"/>
+      <c r="B37" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="56"/>
+      <c r="B38" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="56"/>
+      <c r="B39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="56"/>
+      <c r="B40" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
-      <c r="B38" s="39" t="s">
+    <row r="41" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="56"/>
+      <c r="B41" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="56"/>
+      <c r="B42" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="79"/>
-      <c r="B39" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
-      <c r="B40" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
-      <c r="B41" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="79"/>
-      <c r="B42" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="60" t="s">
-        <v>26</v>
+      <c r="C45" s="47" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="39" t="s">
-        <v>35</v>
+      <c r="C46" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="62" t="s">
-        <v>47</v>
+      <c r="C47" s="49" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="49" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1888,89 +2061,89 @@
       <c r="B49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="63"/>
+      <c r="C49" s="50"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="62" t="s">
+      <c r="C50" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="64" t="s">
-        <v>42</v>
+      <c r="C51" s="51" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="65" t="s">
+      <c r="C52" s="52" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="79"/>
-      <c r="B54" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>49</v>
+      <c r="A54" s="56"/>
+      <c r="B54" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="79"/>
-      <c r="B55" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>30</v>
+      <c r="A55" s="56"/>
+      <c r="B55" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="82"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="60" t="s">
-        <v>26</v>
+      <c r="C58" s="47" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="61" t="s">
-        <v>36</v>
+      <c r="C59" s="48" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="62" t="s">
-        <v>51</v>
+      <c r="C60" s="49" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="62" t="s">
+      <c r="C61" s="49" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1978,92 +2151,92 @@
       <c r="B62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="63"/>
+      <c r="C62" s="50"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="62" t="s">
+      <c r="C63" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="64" t="s">
-        <v>42</v>
+      <c r="C64" s="51" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="65" t="s">
+      <c r="C65" s="52" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="79"/>
-      <c r="B67" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67" s="38" t="s">
+      <c r="A67" s="56"/>
+      <c r="B67" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="79"/>
-      <c r="B68" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="39" t="s">
-        <v>53</v>
+      <c r="A68" s="56"/>
+      <c r="B68" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="80"/>
-      <c r="B69" s="39" t="s">
+      <c r="A69" s="57"/>
+      <c r="B69" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="56"/>
+      <c r="B70" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="56"/>
+      <c r="B71" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="79"/>
-      <c r="B70" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" s="25" t="s">
+      <c r="C71" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="79"/>
-      <c r="B71" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="72" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="79"/>
-      <c r="B72" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>59</v>
+      <c r="A72" s="56"/>
+      <c r="B72" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2071,31 +2244,31 @@
       <c r="B75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="60" t="s">
-        <v>26</v>
+      <c r="C75" s="47" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="37" t="s">
+      <c r="B76" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="61" t="s">
-        <v>65</v>
+      <c r="C76" s="48" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="62" t="s">
-        <v>60</v>
+      <c r="C77" s="49" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="62" t="s">
+      <c r="C78" s="49" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2103,46 +2276,46 @@
       <c r="B79" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="63"/>
+      <c r="C79" s="50"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="62" t="s">
+      <c r="C80" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="64" t="s">
-        <v>42</v>
+      <c r="C81" s="51" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="65" t="s">
+      <c r="C82" s="52" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="C84" s="35" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2150,31 +2323,31 @@
       <c r="B87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C87" s="60" t="s">
-        <v>26</v>
+      <c r="C87" s="47" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="37" t="s">
+      <c r="B88" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="61" t="s">
-        <v>66</v>
+      <c r="C88" s="48" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="62" t="s">
-        <v>67</v>
+      <c r="C89" s="49" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="62" t="s">
+      <c r="C90" s="49" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2182,46 +2355,46 @@
       <c r="B91" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="63"/>
+      <c r="C91" s="50"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C92" s="62" t="s">
+      <c r="C92" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="34" t="s">
+      <c r="B93" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="64" t="s">
-        <v>42</v>
+      <c r="C93" s="51" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C94" s="65" t="s">
+      <c r="C94" s="52" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="23" t="s">
+      <c r="C95" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C96" s="35" t="s">
-        <v>69</v>
+      <c r="B96" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2229,31 +2402,31 @@
       <c r="B99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C99" s="60" t="s">
-        <v>26</v>
+      <c r="C99" s="47" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="37" t="s">
+      <c r="B100" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C100" s="61" t="s">
-        <v>38</v>
+      <c r="C100" s="48" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C101" s="62" t="s">
-        <v>70</v>
+      <c r="C101" s="49" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C102" s="62" t="s">
+      <c r="C102" s="49" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2261,62 +2434,719 @@
       <c r="B103" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C103" s="63"/>
+      <c r="C103" s="50"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C104" s="62" t="s">
+      <c r="C104" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C105" s="64" t="s">
-        <v>42</v>
+      <c r="C105" s="51" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C106" s="65" t="s">
+      <c r="C106" s="52" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="23" t="s">
+      <c r="C107" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B108" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C108" s="38" t="s">
-        <v>72</v>
+      <c r="B108" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="39" t="s">
+      <c r="B109" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C110" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C109" s="39" t="s">
+    </row>
+    <row r="112" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="40" t="s">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="50"/>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C122" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C110" s="40" t="s">
+    </row>
+    <row r="124" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="64"/>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="73" t="s">
         <v>85</v>
+      </c>
+      <c r="C133" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C135" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C136" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C137" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B138" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C138" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C139" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B140" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C140" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C141" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="74"/>
+      <c r="C142" s="68"/>
+    </row>
+    <row r="143" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="74"/>
+      <c r="C143" s="68"/>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" s="60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="64"/>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="C152" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C154" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C156" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C160" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" s="64"/>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C170" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C171" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B173" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C173" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C174" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C175" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" s="60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" s="64"/>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="C186" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C187" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B188" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C188" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B189" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C189" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="C190" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194" s="60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" s="64"/>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" s="66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C200" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="C201" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B203" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C203" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="C204" s="27" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2327,409 +3157,720 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF6F2D9-6EF5-41E9-9588-8DC822EC31A8}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A39" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="4" max="5" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="110"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="112"/>
+      <c r="D3" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="111"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="112"/>
+      <c r="D5" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="111"/>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="116"/>
+      <c r="D6" s="113" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="113"/>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="107"/>
+      <c r="D11" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="109"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="101"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="99"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="99"/>
+      <c r="D14" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="101"/>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="105"/>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="86" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="107"/>
+      <c r="D21" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="109"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="101"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="99"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="99"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="101"/>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="103"/>
+      <c r="D25" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="105"/>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="86" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="107"/>
+      <c r="D31" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="109"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="101"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="99"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="99"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="99"/>
+      <c r="D34" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="101"/>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="103"/>
+      <c r="D35" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="105"/>
+    </row>
+    <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="86" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="107"/>
+      <c r="D45" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="109"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="99"/>
+      <c r="D46" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="101"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="99"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="99"/>
+    </row>
+    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="99"/>
+      <c r="D48" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="101"/>
+    </row>
+    <row r="49" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="103"/>
+      <c r="D49" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="105"/>
+    </row>
+    <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="83"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="87"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="87"/>
+    </row>
+    <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="84"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD112F76-DC34-4E3C-99A5-A46B3178DD9E}">
-  <dimension ref="B1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54B158C-37B4-4C40-BBAF-EEBE76CCD20E}">
+  <dimension ref="B1:C15"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B18" sqref="B18:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
-    <col min="7" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" customWidth="1"/>
-    <col min="11" max="11" width="37.140625" customWidth="1"/>
+    <col min="2" max="3" width="65.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="60"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="64"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="66"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="66"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="66"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="66"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="2:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="27"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test asperitas new.xlsx
+++ b/Test asperitas new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test_asperitas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9DDA76-5A46-441C-9E3A-BA06F9A108DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D19D4F9-AB13-4CA1-B0C3-F71A862892B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{50901EC0-5944-4AB6-8707-8FF3B192D060}"/>
   </bookViews>
@@ -1086,59 +1086,59 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1679,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F667479D-B99A-4D84-94BD-2129C8561E96}">
   <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D176" sqref="D176"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2604,13 +2604,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B129" s="71" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="64"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B130" s="71" t="s">
         <v>5</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B131" s="72" t="s">
         <v>6</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B132" s="71" t="s">
         <v>16</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="73" t="s">
         <v>85</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="134" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="15" t="s">
         <v>17</v>
       </c>
@@ -2650,7 +2650,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="56"/>
       <c r="B135" s="25" t="s">
         <v>88</v>
       </c>
@@ -2658,7 +2659,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="56"/>
       <c r="B136" s="75" t="s">
         <v>92</v>
       </c>
@@ -2666,7 +2668,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="56"/>
       <c r="B137" s="75" t="s">
         <v>94</v>
       </c>
@@ -2674,7 +2677,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="138" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="56"/>
       <c r="B138" s="26" t="s">
         <v>96</v>
       </c>
@@ -2682,7 +2686,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="139" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="56"/>
       <c r="B139" s="26" t="s">
         <v>97</v>
       </c>
@@ -2690,7 +2695,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="140" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="56"/>
       <c r="B140" s="26" t="s">
         <v>99</v>
       </c>
@@ -2698,7 +2704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="27" t="s">
         <v>101</v>
       </c>
@@ -2706,15 +2712,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B142" s="74"/>
       <c r="C142" s="68"/>
     </row>
-    <row r="143" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="74"/>
       <c r="C143" s="68"/>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B144" s="69" t="s">
         <v>0</v>
       </c>
@@ -3171,56 +3177,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="110" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="110"/>
+      <c r="E2" s="109"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="111" t="s">
+      <c r="C3" s="100"/>
+      <c r="D3" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="111"/>
+      <c r="E3" s="110"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="111" t="s">
+      <c r="C5" s="100"/>
+      <c r="D5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="111"/>
+      <c r="E5" s="110"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="113" t="s">
+      <c r="C6" s="112"/>
+      <c r="D6" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="113"/>
+      <c r="E6" s="111"/>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="77" t="s">
@@ -3263,52 +3269,52 @@
       <c r="E10" s="81"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108" t="s">
+      <c r="C11" s="108"/>
+      <c r="D11" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="102"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100" t="s">
+      <c r="C12" s="104"/>
+      <c r="D12" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="101"/>
+      <c r="E12" s="106"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="104"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100" t="s">
+      <c r="C14" s="104"/>
+      <c r="D14" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="101"/>
+      <c r="E14" s="106"/>
     </row>
     <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104" t="s">
+      <c r="C15" s="114"/>
+      <c r="D15" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="105"/>
+      <c r="E15" s="116"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="77" t="s">
@@ -3354,52 +3360,52 @@
     </row>
     <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108" t="s">
+      <c r="C21" s="108"/>
+      <c r="D21" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="109"/>
+      <c r="E21" s="102"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100" t="s">
+      <c r="C22" s="104"/>
+      <c r="D22" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="101"/>
+      <c r="E22" s="106"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="99"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="104"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100" t="s">
+      <c r="C24" s="104"/>
+      <c r="D24" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="101"/>
+      <c r="E24" s="106"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="104" t="s">
+      <c r="C25" s="114"/>
+      <c r="D25" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="105"/>
+      <c r="E25" s="116"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="77" t="s">
@@ -3445,52 +3451,52 @@
     </row>
     <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="106" t="s">
+      <c r="B31" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="107"/>
-      <c r="D31" s="108" t="s">
+      <c r="C31" s="108"/>
+      <c r="D31" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="109"/>
+      <c r="E31" s="102"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="98" t="s">
+      <c r="B32" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100" t="s">
+      <c r="C32" s="104"/>
+      <c r="D32" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="101"/>
+      <c r="E32" s="106"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="99"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="104"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="99"/>
-      <c r="D34" s="100" t="s">
+      <c r="C34" s="104"/>
+      <c r="D34" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="101"/>
+      <c r="E34" s="106"/>
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="102" t="s">
+      <c r="B35" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="103"/>
-      <c r="D35" s="104" t="s">
+      <c r="C35" s="114"/>
+      <c r="D35" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="105"/>
+      <c r="E35" s="116"/>
     </row>
     <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="77" t="s">
@@ -3592,52 +3598,52 @@
     </row>
     <row r="44" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="106" t="s">
+      <c r="B45" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="107"/>
-      <c r="D45" s="108" t="s">
+      <c r="C45" s="108"/>
+      <c r="D45" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="109"/>
+      <c r="E45" s="102"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="98" t="s">
+      <c r="B46" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="99"/>
-      <c r="D46" s="100" t="s">
+      <c r="C46" s="104"/>
+      <c r="D46" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="E46" s="101"/>
+      <c r="E46" s="106"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="98" t="s">
+      <c r="B47" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="99"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="104"/>
     </row>
     <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="100" t="s">
+      <c r="C48" s="104"/>
+      <c r="D48" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="101"/>
+      <c r="E48" s="106"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="104" t="s">
+      <c r="C49" s="114"/>
+      <c r="D49" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="105"/>
+      <c r="E49" s="116"/>
     </row>
     <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="77" t="s">
@@ -3715,11 +3721,42 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
@@ -3730,42 +3767,11 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test asperitas new.xlsx
+++ b/Test asperitas new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test_asperitas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D19D4F9-AB13-4CA1-B0C3-F71A862892B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02266408-CA9B-472D-8850-8C1206F0C53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{50901EC0-5944-4AB6-8707-8FF3B192D060}"/>
   </bookViews>
@@ -1086,59 +1086,59 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1679,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F667479D-B99A-4D84-94BD-2129C8561E96}">
   <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,6 +2705,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="56"/>
       <c r="B141" s="27" t="s">
         <v>101</v>
       </c>
@@ -3177,56 +3178,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="109" t="s">
+      <c r="C2" s="116"/>
+      <c r="D2" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="109"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="110" t="s">
+      <c r="C3" s="112"/>
+      <c r="D3" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="110"/>
+      <c r="E3" s="111"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="110" t="s">
+      <c r="C5" s="112"/>
+      <c r="D5" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="110"/>
+      <c r="E5" s="111"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="111" t="s">
+      <c r="C6" s="114"/>
+      <c r="D6" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="111"/>
+      <c r="E6" s="113"/>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="77" t="s">
@@ -3269,52 +3270,52 @@
       <c r="E10" s="81"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="101" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="102"/>
+      <c r="E11" s="109"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105" t="s">
+      <c r="C12" s="99"/>
+      <c r="D12" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="106"/>
+      <c r="E12" s="101"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="104"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="105" t="s">
+      <c r="C14" s="99"/>
+      <c r="D14" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="106"/>
+      <c r="E14" s="101"/>
     </row>
     <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="115" t="s">
+      <c r="C15" s="103"/>
+      <c r="D15" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="116"/>
+      <c r="E15" s="105"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="77" t="s">
@@ -3360,52 +3361,52 @@
     </row>
     <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="108"/>
-      <c r="D21" s="101" t="s">
+      <c r="C21" s="107"/>
+      <c r="D21" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="102"/>
+      <c r="E21" s="109"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="105" t="s">
+      <c r="C22" s="99"/>
+      <c r="D22" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="106"/>
+      <c r="E22" s="101"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="104"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="99"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="105" t="s">
+      <c r="C24" s="99"/>
+      <c r="D24" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="106"/>
+      <c r="E24" s="101"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="115" t="s">
+      <c r="C25" s="103"/>
+      <c r="D25" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="116"/>
+      <c r="E25" s="105"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="77" t="s">
@@ -3451,52 +3452,52 @@
     </row>
     <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="101" t="s">
+      <c r="C31" s="107"/>
+      <c r="D31" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="102"/>
+      <c r="E31" s="109"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="105" t="s">
+      <c r="C32" s="99"/>
+      <c r="D32" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="106"/>
+      <c r="E32" s="101"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="104"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="99"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="105" t="s">
+      <c r="C34" s="99"/>
+      <c r="D34" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="106"/>
+      <c r="E34" s="101"/>
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="113" t="s">
+      <c r="B35" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="114"/>
-      <c r="D35" s="115" t="s">
+      <c r="C35" s="103"/>
+      <c r="D35" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="116"/>
+      <c r="E35" s="105"/>
     </row>
     <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="77" t="s">
@@ -3598,52 +3599,52 @@
     </row>
     <row r="44" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="108"/>
-      <c r="D45" s="101" t="s">
+      <c r="C45" s="107"/>
+      <c r="D45" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="102"/>
+      <c r="E45" s="109"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="103" t="s">
+      <c r="B46" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="104"/>
-      <c r="D46" s="105" t="s">
+      <c r="C46" s="99"/>
+      <c r="D46" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="E46" s="106"/>
+      <c r="E46" s="101"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="103" t="s">
+      <c r="B47" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="104"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="104"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="99"/>
     </row>
     <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="103" t="s">
+      <c r="B48" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="104"/>
-      <c r="D48" s="105" t="s">
+      <c r="C48" s="99"/>
+      <c r="D48" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="106"/>
+      <c r="E48" s="101"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="113" t="s">
+      <c r="B49" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="115" t="s">
+      <c r="C49" s="103"/>
+      <c r="D49" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="116"/>
+      <c r="E49" s="105"/>
     </row>
     <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="77" t="s">
@@ -3721,42 +3722,11 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
@@ -3767,11 +3737,42 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test asperitas new.xlsx
+++ b/Test asperitas new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test_asperitas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02266408-CA9B-472D-8850-8C1206F0C53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3281F9E7-138D-4CCB-81FD-2C9FD4D361E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{50901EC0-5944-4AB6-8707-8FF3B192D060}"/>
   </bookViews>
@@ -519,7 +519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,8 +544,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,12 +562,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,7 +974,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1086,61 +1086,62 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1473,70 +1474,70 @@
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="93"/>
+      <c r="D2" s="92"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="95"/>
+      <c r="D3" s="94"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="95"/>
+      <c r="D4" s="94"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="95"/>
+      <c r="D5" s="94"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="96">
+      <c r="C6" s="95">
         <v>44916</v>
       </c>
-      <c r="D6" s="97"/>
+      <c r="D6" s="96"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="95"/>
+      <c r="D7" s="94"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="91"/>
+      <c r="D8" s="90"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="76" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -1548,24 +1549,24 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="78" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="77" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="88"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="26" t="s">
         <v>32</v>
       </c>
@@ -1573,7 +1574,7 @@
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="88"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="26" t="s">
         <v>33</v>
       </c>
@@ -1581,7 +1582,7 @@
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="88"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="26" t="s">
         <v>34</v>
       </c>
@@ -1589,7 +1590,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="88"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="26" t="s">
         <v>113</v>
       </c>
@@ -1597,7 +1598,7 @@
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="88"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="26" t="s">
         <v>62</v>
       </c>
@@ -1605,7 +1606,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="88"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="26" t="s">
         <v>35</v>
       </c>
@@ -1613,7 +1614,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="88"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="26" t="s">
         <v>59</v>
       </c>
@@ -1621,7 +1622,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="88"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="26" t="s">
         <v>90</v>
       </c>
@@ -1629,7 +1630,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="88"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="26" t="s">
         <v>91</v>
       </c>
@@ -1637,7 +1638,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="88"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="26" t="s">
         <v>60</v>
       </c>
@@ -1645,7 +1646,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="88"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="26" t="s">
         <v>36</v>
       </c>
@@ -1653,7 +1654,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
-      <c r="B23" s="89"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="8" t="s">
         <v>58</v>
       </c>
@@ -1679,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F667479D-B99A-4D84-94BD-2129C8561E96}">
   <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,7 +1693,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
+      <c r="A2" s="58"/>
       <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
@@ -1788,7 +1789,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1871,7 +1872,7 @@
       <c r="D23" s="34"/>
     </row>
     <row r="24" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="27" t="s">
         <v>43</v>
       </c>
@@ -2025,7 +2026,7 @@
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +2116,7 @@
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="1" t="s">
         <v>0</v>
       </c>
@@ -2573,7 +2574,7 @@
     </row>
     <row r="124" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="69" t="s">
+      <c r="B125" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C125" s="25" t="s">
@@ -2581,15 +2582,15 @@
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="70" t="s">
+      <c r="B126" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C126" s="60" t="s">
+      <c r="C126" s="59" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="71" t="s">
+      <c r="B127" s="70" t="s">
         <v>2</v>
       </c>
       <c r="C127" s="26" t="s">
@@ -2597,7 +2598,7 @@
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="71" t="s">
+      <c r="B128" s="70" t="s">
         <v>3</v>
       </c>
       <c r="C128" s="26" t="s">
@@ -2605,13 +2606,13 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="71" t="s">
+      <c r="B129" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C129" s="64"/>
+      <c r="C129" s="63"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B130" s="71" t="s">
+      <c r="B130" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C130" s="26" t="s">
@@ -2619,15 +2620,15 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B131" s="72" t="s">
+      <c r="B131" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="66" t="s">
+      <c r="C131" s="65" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="71" t="s">
+      <c r="B132" s="70" t="s">
         <v>16</v>
       </c>
       <c r="C132" s="26" t="s">
@@ -2635,7 +2636,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="73" t="s">
+      <c r="B133" s="72" t="s">
         <v>85</v>
       </c>
       <c r="C133" s="27" t="s">
@@ -2661,7 +2662,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="56"/>
-      <c r="B136" s="75" t="s">
+      <c r="B136" s="74" t="s">
         <v>92</v>
       </c>
       <c r="C136" s="26" t="s">
@@ -2670,7 +2671,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="56"/>
-      <c r="B137" s="75" t="s">
+      <c r="B137" s="74" t="s">
         <v>94</v>
       </c>
       <c r="C137" s="26" t="s">
@@ -2714,15 +2715,15 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="74"/>
-      <c r="C142" s="68"/>
+      <c r="B142" s="73"/>
+      <c r="C142" s="67"/>
     </row>
     <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="74"/>
-      <c r="C143" s="68"/>
+      <c r="B143" s="73"/>
+      <c r="C143" s="67"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="69" t="s">
+      <c r="B144" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C144" s="25" t="s">
@@ -2730,15 +2731,15 @@
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="70" t="s">
+      <c r="B145" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C145" s="60" t="s">
+      <c r="C145" s="59" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" s="71" t="s">
+      <c r="B146" s="70" t="s">
         <v>2</v>
       </c>
       <c r="C146" s="26" t="s">
@@ -2746,7 +2747,7 @@
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="71" t="s">
+      <c r="B147" s="70" t="s">
         <v>3</v>
       </c>
       <c r="C147" s="26" t="s">
@@ -2754,13 +2755,13 @@
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" s="71" t="s">
+      <c r="B148" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C148" s="64"/>
+      <c r="C148" s="63"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" s="71" t="s">
+      <c r="B149" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C149" s="26" t="s">
@@ -2768,15 +2769,15 @@
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150" s="72" t="s">
+      <c r="B150" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C150" s="66" t="s">
+      <c r="C150" s="65" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151" s="71" t="s">
+      <c r="B151" s="70" t="s">
         <v>16</v>
       </c>
       <c r="C151" s="26" t="s">
@@ -2784,7 +2785,7 @@
       </c>
     </row>
     <row r="152" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="73" t="s">
+      <c r="B152" s="72" t="s">
         <v>111</v>
       </c>
       <c r="C152" s="27" t="s">
@@ -2808,7 +2809,7 @@
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" s="75" t="s">
+      <c r="B155" s="74" t="s">
         <v>104</v>
       </c>
       <c r="C155" s="26" t="s">
@@ -2816,7 +2817,7 @@
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" s="75" t="s">
+      <c r="B156" s="74" t="s">
         <v>94</v>
       </c>
       <c r="C156" s="26" t="s">
@@ -2855,78 +2856,78 @@
         <v>110</v>
       </c>
     </row>
-    <row r="162" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" s="69" t="s">
+    <row r="162" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B163" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C163" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" s="70" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C164" s="60" t="s">
+      <c r="C164" s="59" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" s="71" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="70" t="s">
         <v>2</v>
       </c>
       <c r="C165" s="26" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166" s="71" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="70" t="s">
         <v>3</v>
       </c>
       <c r="C166" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" s="71" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B167" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C167" s="64"/>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="71" t="s">
+      <c r="C167" s="63"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C168" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B169" s="72" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C169" s="66" t="s">
+      <c r="C169" s="65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B170" s="71" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="70" t="s">
         <v>16</v>
       </c>
       <c r="C170" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="73" t="s">
+    <row r="171" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="72" t="s">
         <v>85</v>
       </c>
       <c r="C171" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="172" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B172" s="15" t="s">
         <v>17</v>
       </c>
@@ -2934,7 +2935,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="116"/>
       <c r="B173" s="25" t="s">
         <v>114</v>
       </c>
@@ -2942,94 +2944,96 @@
         <v>118</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="75" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="116"/>
+      <c r="B174" s="74" t="s">
         <v>115</v>
       </c>
       <c r="C174" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="175" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="76" t="s">
+    <row r="175" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="116"/>
+      <c r="B175" s="75" t="s">
         <v>117</v>
       </c>
       <c r="C175" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="177" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B178" s="69" t="s">
+    <row r="177" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C178" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="70" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B179" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C179" s="60" t="s">
+      <c r="C179" s="59" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="71" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="70" t="s">
         <v>2</v>
       </c>
       <c r="C180" s="26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B181" s="71" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B181" s="70" t="s">
         <v>3</v>
       </c>
       <c r="C181" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B182" s="71" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C182" s="64"/>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B183" s="71" t="s">
+      <c r="C182" s="63"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C183" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B184" s="72" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B184" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C184" s="66" t="s">
+      <c r="C184" s="65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B185" s="71" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B185" s="70" t="s">
         <v>16</v>
       </c>
       <c r="C185" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="73" t="s">
+    <row r="186" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="72" t="s">
         <v>111</v>
       </c>
       <c r="C186" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="187" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B187" s="15" t="s">
         <v>17</v>
       </c>
@@ -3037,7 +3041,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="56"/>
       <c r="B188" s="25" t="s">
         <v>61</v>
       </c>
@@ -3045,94 +3050,96 @@
         <v>64</v>
       </c>
     </row>
-    <row r="189" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B189" s="75" t="s">
+    <row r="189" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="56"/>
+      <c r="B189" s="74" t="s">
         <v>125</v>
       </c>
       <c r="C189" s="26" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="190" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="76" t="s">
+    <row r="190" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="56"/>
+      <c r="B190" s="75" t="s">
         <v>127</v>
       </c>
       <c r="C190" s="27" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="192" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B193" s="69" t="s">
+    <row r="192" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B193" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C193" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B194" s="70" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B194" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C194" s="60" t="s">
+      <c r="C194" s="59" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="71" t="s">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="70" t="s">
         <v>2</v>
       </c>
       <c r="C195" s="26" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="71" t="s">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B196" s="70" t="s">
         <v>3</v>
       </c>
       <c r="C196" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B197" s="71" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C197" s="64"/>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B198" s="71" t="s">
+      <c r="C197" s="63"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B198" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C198" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B199" s="72" t="s">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B199" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C199" s="66" t="s">
+      <c r="C199" s="65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B200" s="71" t="s">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B200" s="70" t="s">
         <v>16</v>
       </c>
       <c r="C200" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="73" t="s">
+    <row r="201" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="72" t="s">
         <v>111</v>
       </c>
       <c r="C201" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="202" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B202" s="15" t="s">
         <v>17</v>
       </c>
@@ -3140,7 +3147,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="56"/>
       <c r="B203" s="25" t="s">
         <v>61</v>
       </c>
@@ -3148,8 +3156,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="204" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="76" t="s">
+    <row r="204" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="56"/>
+      <c r="B204" s="75" t="s">
         <v>131</v>
       </c>
       <c r="C204" s="27" t="s">
@@ -3178,184 +3187,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="110" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="110"/>
+      <c r="E2" s="108"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="111" t="s">
+      <c r="C3" s="99"/>
+      <c r="D3" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="111"/>
+      <c r="E3" s="109"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="111" t="s">
+      <c r="C5" s="99"/>
+      <c r="D5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="111"/>
+      <c r="E5" s="109"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="113" t="s">
+      <c r="C6" s="111"/>
+      <c r="D6" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="113"/>
+      <c r="E6" s="110"/>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="76" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="79" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="106" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="107"/>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="101"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100" t="s">
+      <c r="C12" s="103"/>
+      <c r="D12" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="101"/>
+      <c r="E12" s="105"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100" t="s">
+      <c r="C14" s="103"/>
+      <c r="D14" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="101"/>
+      <c r="E14" s="105"/>
     </row>
     <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104" t="s">
+      <c r="C15" s="113"/>
+      <c r="D15" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="105"/>
+      <c r="E15" s="115"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="76" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="84" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="86" t="s">
+      <c r="E18" s="85" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3365,88 +3374,88 @@
         <v>0</v>
       </c>
       <c r="C21" s="107"/>
-      <c r="D21" s="108" t="s">
+      <c r="D21" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="109"/>
+      <c r="E21" s="101"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100" t="s">
+      <c r="C22" s="103"/>
+      <c r="D22" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="101"/>
+      <c r="E22" s="105"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="99"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="103"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100" t="s">
+      <c r="C24" s="103"/>
+      <c r="D24" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="101"/>
+      <c r="E24" s="105"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="104" t="s">
+      <c r="C25" s="113"/>
+      <c r="D25" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="105"/>
+      <c r="E25" s="115"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="77" t="s">
+      <c r="E26" s="76" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="85" t="s">
+      <c r="E27" s="84" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="86" t="s">
+      <c r="E28" s="85" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3456,144 +3465,144 @@
         <v>0</v>
       </c>
       <c r="C31" s="107"/>
-      <c r="D31" s="108" t="s">
+      <c r="D31" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="109"/>
+      <c r="E31" s="101"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="98" t="s">
+      <c r="B32" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100" t="s">
+      <c r="C32" s="103"/>
+      <c r="D32" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="101"/>
+      <c r="E32" s="105"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="99"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="103"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="99"/>
-      <c r="D34" s="100" t="s">
+      <c r="C34" s="103"/>
+      <c r="D34" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="101"/>
+      <c r="E34" s="105"/>
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="102" t="s">
+      <c r="B35" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="103"/>
-      <c r="D35" s="104" t="s">
+      <c r="C35" s="113"/>
+      <c r="D35" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="105"/>
+      <c r="E35" s="115"/>
     </row>
     <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="77" t="s">
+      <c r="C36" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="77" t="s">
+      <c r="D36" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="77" t="s">
+      <c r="E36" s="76" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="82" t="s">
+      <c r="C37" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="82" t="s">
+      <c r="D37" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="85" t="s">
+      <c r="E37" s="84" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="83" t="s">
+      <c r="D38" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="E38" s="87" t="s">
+      <c r="E38" s="86" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="83" t="s">
+      <c r="D39" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="87" t="s">
+      <c r="E39" s="86" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="83" t="s">
+      <c r="C40" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="83" t="s">
+      <c r="D40" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="87" t="s">
+      <c r="E40" s="86" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="83" t="s">
+      <c r="C41" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="83" t="s">
+      <c r="D41" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="E41" s="87" t="s">
+      <c r="E41" s="86" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="84" t="s">
+      <c r="C42" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="84" t="s">
+      <c r="D42" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="86" t="s">
+      <c r="E42" s="85" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3603,130 +3612,161 @@
         <v>0</v>
       </c>
       <c r="C45" s="107"/>
-      <c r="D45" s="108" t="s">
+      <c r="D45" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="109"/>
+      <c r="E45" s="101"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="98" t="s">
+      <c r="B46" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="99"/>
-      <c r="D46" s="100" t="s">
+      <c r="C46" s="103"/>
+      <c r="D46" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="E46" s="101"/>
+      <c r="E46" s="105"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="98" t="s">
+      <c r="B47" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="99"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="103"/>
     </row>
     <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="100" t="s">
+      <c r="C48" s="103"/>
+      <c r="D48" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="101"/>
+      <c r="E48" s="105"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="104" t="s">
+      <c r="C49" s="113"/>
+      <c r="D49" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="105"/>
+      <c r="E49" s="115"/>
     </row>
     <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="77" t="s">
+      <c r="B50" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="77" t="s">
+      <c r="C50" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="77" t="s">
+      <c r="D50" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="77" t="s">
+      <c r="E50" s="76" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="82" t="s">
+      <c r="C51" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="82" t="s">
+      <c r="D51" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="E51" s="85" t="s">
+      <c r="E51" s="84" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="83" t="s">
+      <c r="B52" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="83" t="s">
+      <c r="C52" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="83" t="s">
+      <c r="D52" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="E52" s="87" t="s">
+      <c r="E52" s="86" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="83" t="s">
+      <c r="B53" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="83" t="s">
+      <c r="C53" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="83" t="s">
+      <c r="D53" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="E53" s="87" t="s">
+      <c r="E53" s="86" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="83"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="87"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="86"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="87"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="86"/>
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="86"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
@@ -3737,42 +3777,11 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3794,85 +3803,85 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="25"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="59"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="26"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="62" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="26"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="64"/>
+      <c r="C6" s="63"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="65"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="66"/>
+      <c r="C9" s="65"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="66"/>
+      <c r="C10" s="65"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="66"/>
+      <c r="C11" s="65"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="64" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="26"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="64" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="26"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="64" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="26"/>
     </row>
     <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="66" t="s">
         <v>123</v>
       </c>
       <c r="C15" s="27"/>
